--- a/data/section_3.xlsx
+++ b/data/section_3.xlsx
@@ -311,19 +311,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="24.11" customWidth="1" style="6" min="1" max="1"/>
     <col width="105.53" customWidth="1" style="6" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.3" customHeight="1" s="7">
+    <row r="1" ht="33" customHeight="1" s="7">
       <c r="A1" s="8" t="inlineStr">
         <is>
           <t>-</t>
@@ -334,17 +334,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" t="n">
         <v>603789543</v>
       </c>
-      <c r="D1" s="6" t="n">
-        <v>6016855180</v>
-      </c>
-      <c r="E1" s="6" t="n">
-        <v>6959852164</v>
-      </c>
-    </row>
-    <row r="2" ht="33.3" customHeight="1" s="7">
+    </row>
+    <row r="2" ht="33" customHeight="1" s="7">
       <c r="A2" s="8" t="inlineStr">
         <is>
           <t>-</t>
@@ -355,19 +349,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>gdfdgf gfgdf gfg</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>dgdsg gs dgds</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>fsd fds fdsf</t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>errefd fdsf dfds</t>
         </is>
       </c>
     </row>
@@ -390,11 +374,6 @@
           <t>Читать рабочие чертежи, электрические схемы, спецификации монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="5" ht="52.5" customHeight="1" s="7">
       <c r="A5" s="11" t="n"/>
@@ -403,11 +382,6 @@
           <t>Пользоваться ручным и механизированным инструментом для обрезки, зачистки, пайки и подключения объектовых датчиков, извещателей, приемо-передающих приборов, оконечных устройств систем охраны и безопасности объектов капитального строительства к смонтированным слаботочным сетям через соединительные и коммутационные устройства согласно проектной документации</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="6" ht="52.5" customHeight="1" s="7">
       <c r="A6" s="11" t="n"/>
@@ -416,11 +390,6 @@
           <t>Пользоваться измерительными приборами для замера необходимых измерений и проверки электрического сопротивления цепи</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="7" ht="52.5" customHeight="1" s="7">
       <c r="A7" s="11" t="n"/>
@@ -429,11 +398,6 @@
           <t>Применять требования нормативных правовых актов, нормативно-технических и методических документов по монтажу слаботочного электрооборудования систем охраны и безопасности объектов капитального строительства</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="8" ht="52.5" customHeight="1" s="7">
       <c r="A8" s="11" t="n"/>
@@ -442,11 +406,6 @@
           <t>Применять средства индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="9" ht="52.5" customHeight="1" s="7">
       <c r="A9" s="11" t="n"/>
@@ -455,11 +414,6 @@
           <t>Пользоваться стандартными компьютерными офисными приложениями, браузерами, электронными словарями и профессиональными ресурсами информационно-телекоммуникационной сети "Интернет"</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="10" ht="52.5" customHeight="1" s="7">
       <c r="A10" s="11" t="n"/>
@@ -468,11 +422,6 @@
           <t>Соблюдать требования охраны труда, правила технической эксплуатации электроустановок потребителей, пожарной и экологической безопасности при выполнении работ</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="11" ht="52.5" customHeight="1" s="7">
       <c r="A11" s="11" t="inlineStr">
@@ -483,11 +432,6 @@
       <c r="B11" s="10" t="inlineStr">
         <is>
           <t>Условные изображения на чертежах и схемах монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -498,11 +442,6 @@
           <t>Правила пользования ручным и механизированным инструментом для обрезки, зачистки, пайки и подключения объектовых датчиков, извещателей, приемо-передающих приборов, оконечных устройств систем охраны и безопасности объектов капитального строительства к смонтированным слаботочным сетям через соединительные и коммутационные устройства согласно проектной документации</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="13" ht="52.5" customHeight="1" s="7">
       <c r="A13" s="11" t="n"/>
@@ -511,11 +450,6 @@
           <t>Правила монтажа слаботочных линий связи, коммутирующих узлов и слаботочного электрооборудования</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="14" ht="52.5" customHeight="1" s="7">
       <c r="A14" s="11" t="n"/>
@@ -524,11 +458,6 @@
           <t>Требования нормативных правовых актов, нормативно-технических и методических документов по монтажу слаботочного электрооборудования систем охраны и безопасности объектов капитального строительства</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="15" ht="52.5" customHeight="1" s="7">
       <c r="A15" s="11" t="n"/>
@@ -537,11 +466,6 @@
           <t>Правила по охране труда и правила технической эксплуатации электроустановок потребителей</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="16" ht="52.5" customHeight="1" s="7">
       <c r="A16" s="11" t="n"/>
@@ -550,11 +474,6 @@
           <t>Требования охраны труда, пожарной и экологической безопасности при выполнении работ по монтажу слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
     </row>
     <row r="17" ht="52.5" customHeight="1" s="7">
       <c r="A17" s="11" t="n"/>
@@ -563,11 +482,6 @@
           <t>Требования, предъявляемые к рациональной организации труда на рабочем месте</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="18" ht="52.5" customHeight="1" s="7">
       <c r="A18" s="11" t="n"/>
@@ -576,22 +490,12 @@
           <t>Правила применения средств индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
     </row>
     <row r="19" ht="52.5" customHeight="1" s="7">
       <c r="A19" s="11" t="n"/>
       <c r="B19" s="10" t="inlineStr">
         <is>
           <t>Стандартные компьютерные офисные приложения, браузеры, электронные словари и профессиональные ресурсы информационно-телекоммуникационной сети "Интернет"</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Да</t>
         </is>
       </c>
     </row>
